--- a/public/sales_report/sales-report.xlsx
+++ b/public/sales_report/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="27">
   <si>
     <t>Serial Number</t>
   </si>
@@ -64,16 +64,34 @@
     <t>Apple iPhone 13 (128GB) - Blue</t>
   </si>
   <si>
+    <t>Wallet Payment</t>
+  </si>
+  <si>
     <t>Apple 2022 iPad Air M1 Chip (10.9-inch/27.69 cm, Wi-Fi, 64GB) - Space Gray (5th Generation)</t>
   </si>
   <si>
-    <t>Wallet Payment</t>
-  </si>
-  <si>
     <t>Apple iPhone 13 (128GB) - Pink</t>
   </si>
   <si>
     <t>Apple Watch Series 9 [GPS + Cellular 41mm] Smartwatch with (PRODUCT)RED Aluminum Case with (PRODUCT)RED Sport Band M/L.</t>
+  </si>
+  <si>
+    <t>Apple 2021 iPad Mini with A15 Bionic chip (Wi-Fi, 64GB) - Purple (6th Generation)</t>
+  </si>
+  <si>
+    <t>"656715405dce90325584e995"</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>Apple Watch SE (2nd Gen) [GPS 40 mm] Smart Watch w/Midnight Aluminium Case &amp; Midnight Sport Band.</t>
+  </si>
+  <si>
+    <t>"65c09794eb954eff9030c6fb"</t>
+  </si>
+  <si>
+    <t>THOMAS JITHIN</t>
   </si>
 </sst>
 </file>
@@ -459,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -511,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>45247.6396775926</v>
+        <v>45308.62143018519</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -543,19 +561,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>45253.58302207176</v>
+        <v>45325.6396775926</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55100</v>
+        <v>90000</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -575,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>45248.5418112037</v>
+        <v>45247.656779375</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -593,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -607,19 +625,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>45251.26640645834</v>
+        <v>45308.67731392361</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50099</v>
+        <v>90000</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -639,7 +657,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>45247.656779375</v>
+        <v>45248.5418112037</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -657,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -671,19 +689,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>45253.57515546297</v>
+        <v>45249.26319275463</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55100</v>
+        <v>90000</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -703,25 +721,25 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>45253.77728353009</v>
+        <v>45250.961369791665</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51099</v>
+        <v>50100</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -735,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>45251.26952403935</v>
+        <v>45251.26640645834</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -753,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -767,25 +785,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>45247.62143018519</v>
+        <v>45327.26952403935</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90000</v>
+        <v>50099</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -799,19 +817,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>45247.67731392361</v>
+        <v>45253.57515546297</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90000</v>
+        <v>55100</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -831,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>45250.961369791665</v>
+        <v>45253.58302207176</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -843,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50100</v>
+        <v>55100</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -863,19 +881,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>45249.26319275463</v>
+        <v>45253.77728353009</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90000</v>
+        <v>51099</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1061,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1172,6 +1190,134 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45259.3364994213</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>48289</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45259.44772521991</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27000</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45259.448527569446</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>53900</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45327.39974116898</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50099</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
         <v>15</v>
       </c>
     </row>
